--- a/z/SVHC/SVHC.xlsx
+++ b/z/SVHC/SVHC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenhuai\python\work\z\SVHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Frank\Python\work\z\SVHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B0B448-ADE7-4CF5-B25F-8FE023B18E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810BE2C3-1158-4085-8E9D-2CFE444552D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SVHC" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="381">
   <si>
     <t>DCU No</t>
   </si>
@@ -1138,9 +1136,6 @@
     <t>12008-41-2</t>
   </si>
   <si>
-    <t>M BS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Element </t>
   </si>
   <si>
@@ -1209,37 +1204,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="0.00;_ȅ"/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="0.00;_ȅ"/>
+    <numFmt numFmtId="166" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1305,7 +1300,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1335,7 +1330,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1498,19 +1493,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="127">
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,19 +1514,19 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1645,34 +1640,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1699,187 +1694,187 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2277,26 +2272,26 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.25" style="64" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="45" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="65" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="64" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="65" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="64" customWidth="1"/>
     <col min="6" max="6" width="19" style="66" customWidth="1"/>
-    <col min="7" max="7" width="23.25" style="66" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="66" customWidth="1"/>
-    <col min="9" max="10" width="8.25" style="45" customWidth="1"/>
-    <col min="11" max="11" width="10.375" style="13" customWidth="1"/>
-    <col min="12" max="12" width="13.375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="64" customWidth="1"/>
-    <col min="14" max="14" width="15.125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="64" customWidth="1"/>
-    <col min="16" max="16384" width="15.125" style="64"/>
+    <col min="7" max="7" width="23.28515625" style="66" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" style="66" customWidth="1"/>
+    <col min="9" max="10" width="8.28515625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="13" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="64" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="64" customWidth="1"/>
+    <col min="16" max="16384" width="15.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16383" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16383" ht="16.5" customHeight="1">
       <c r="B1" s="67"/>
       <c r="C1" s="68"/>
       <c r="D1" s="69"/>
@@ -18680,7 +18675,7 @@
       <c r="XFB1" s="70"/>
       <c r="XFC1" s="70"/>
     </row>
-    <row r="2" spans="1:16383" s="71" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16383" s="71" customFormat="1" ht="40.5" customHeight="1">
       <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
@@ -18720,7 +18715,7 @@
       </c>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:16383" s="71" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16383" s="71" customFormat="1" ht="40.5" customHeight="1">
       <c r="A3" s="61">
         <v>1</v>
       </c>
@@ -18766,7 +18761,7 @@
       </c>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:16383" s="71" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16383" s="71" customFormat="1" ht="40.5" customHeight="1">
       <c r="A4" s="61" t="s">
         <v>16</v>
       </c>
@@ -18812,7 +18807,7 @@
       </c>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="62" t="s">
         <v>21</v>
       </c>
@@ -18858,7 +18853,7 @@
       </c>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="62" t="s">
         <v>26</v>
       </c>
@@ -18904,7 +18899,7 @@
       </c>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="62"/>
       <c r="B7" s="11">
         <v>10</v>
@@ -18939,7 +18934,7 @@
       </c>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="62" t="s">
         <v>32</v>
       </c>
@@ -18985,7 +18980,7 @@
       </c>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="62"/>
       <c r="B9" s="11">
         <v>12</v>
@@ -19020,7 +19015,7 @@
       </c>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="62" t="s">
         <v>38</v>
       </c>
@@ -19066,7 +19061,7 @@
       </c>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A11" s="62" t="s">
         <v>42</v>
       </c>
@@ -19112,7 +19107,7 @@
       </c>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A12" s="62" t="s">
         <v>46</v>
       </c>
@@ -19158,7 +19153,7 @@
       </c>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A13" s="62"/>
       <c r="B13" s="11">
         <v>25</v>
@@ -19193,7 +19188,7 @@
       </c>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A14" s="62" t="s">
         <v>52</v>
       </c>
@@ -19239,7 +19234,7 @@
       </c>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A15" s="62"/>
       <c r="B15" s="11">
         <v>26</v>
@@ -19274,7 +19269,7 @@
       </c>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="1:16383" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16383" ht="18.600000000000001" customHeight="1">
       <c r="A16" s="62" t="s">
         <v>57</v>
       </c>
@@ -19320,7 +19315,7 @@
       </c>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A17" s="62"/>
       <c r="B17" s="11">
         <v>27</v>
@@ -19355,7 +19350,7 @@
       </c>
       <c r="N17" s="22"/>
     </row>
-    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A18" s="62"/>
       <c r="B18" s="11">
         <v>27</v>
@@ -19390,7 +19385,7 @@
       </c>
       <c r="N18" s="22"/>
     </row>
-    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A19" s="62" t="s">
         <v>64</v>
       </c>
@@ -19436,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14">
       <c r="A20" s="62"/>
       <c r="B20" s="11">
         <v>28</v>
@@ -19473,7 +19468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A21" s="62"/>
       <c r="B21" s="11">
         <v>28</v>
@@ -19510,7 +19505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A22" s="62"/>
       <c r="B22" s="11">
         <v>28</v>
@@ -19547,7 +19542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A23" s="62"/>
       <c r="B23" s="11">
         <v>28</v>
@@ -19584,7 +19579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A24" s="62"/>
       <c r="B24" s="11">
         <v>28</v>
@@ -19620,7 +19615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="62"/>
       <c r="B25" s="11">
         <v>28</v>
@@ -19656,7 +19651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A26" s="62"/>
       <c r="B26" s="11">
         <v>28</v>
@@ -19692,7 +19687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A27" s="62" t="s">
         <v>83</v>
       </c>
@@ -19739,7 +19734,7 @@
       </c>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A28" s="62"/>
       <c r="B28" s="11">
         <v>29</v>
@@ -19777,7 +19772,7 @@
       </c>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A29" s="62"/>
       <c r="B29" s="11">
         <v>29</v>
@@ -19814,7 +19809,7 @@
       </c>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A30" s="62"/>
       <c r="B30" s="11">
         <v>29</v>
@@ -19851,7 +19846,7 @@
       </c>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A31" s="62"/>
       <c r="B31" s="11">
         <v>29</v>
@@ -19888,7 +19883,7 @@
       </c>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A32" s="62"/>
       <c r="B32" s="11">
         <v>29</v>
@@ -19925,7 +19920,7 @@
       </c>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A33" s="62"/>
       <c r="B33" s="11">
         <v>29</v>
@@ -19962,7 +19957,7 @@
       </c>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A34" s="62" t="s">
         <v>87</v>
       </c>
@@ -20008,7 +20003,7 @@
       </c>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="41.25" customHeight="1">
       <c r="A35" s="62" t="s">
         <v>92</v>
       </c>
@@ -20054,7 +20049,7 @@
       </c>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A36" s="62"/>
       <c r="B36" s="11">
         <v>33</v>
@@ -20089,7 +20084,7 @@
       </c>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="54" customHeight="1">
       <c r="A37" s="62" t="s">
         <v>98</v>
       </c>
@@ -20135,7 +20130,7 @@
       </c>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A38" s="62"/>
       <c r="B38" s="11">
         <v>34</v>
@@ -20170,7 +20165,7 @@
       </c>
       <c r="N38" s="22"/>
     </row>
-    <row r="39" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A39" s="62" t="s">
         <v>102</v>
       </c>
@@ -20216,7 +20211,7 @@
       </c>
       <c r="N39" s="22"/>
     </row>
-    <row r="40" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A40" s="62"/>
       <c r="B40" s="11">
         <v>35</v>
@@ -20251,7 +20246,7 @@
       </c>
       <c r="N40" s="22"/>
     </row>
-    <row r="41" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A41" s="62" t="s">
         <v>106</v>
       </c>
@@ -20297,7 +20292,7 @@
       </c>
       <c r="N41" s="22"/>
     </row>
-    <row r="42" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A42" s="62" t="s">
         <v>111</v>
       </c>
@@ -20343,7 +20338,7 @@
       </c>
       <c r="N42" s="22"/>
     </row>
-    <row r="43" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A43" s="62" t="s">
         <v>115</v>
       </c>
@@ -20389,7 +20384,7 @@
       </c>
       <c r="N43" s="22"/>
     </row>
-    <row r="44" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A44" s="62" t="s">
         <v>119</v>
       </c>
@@ -20435,7 +20430,7 @@
       </c>
       <c r="N44" s="22"/>
     </row>
-    <row r="45" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A45" s="62" t="s">
         <v>123</v>
       </c>
@@ -20481,7 +20476,7 @@
       </c>
       <c r="N45" s="22"/>
     </row>
-    <row r="46" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="107.25" customHeight="1">
       <c r="A46" s="62" t="s">
         <v>127</v>
       </c>
@@ -20527,7 +20522,7 @@
       </c>
       <c r="N46" s="22"/>
     </row>
-    <row r="47" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A47" s="62" t="s">
         <v>131</v>
       </c>
@@ -20573,7 +20568,7 @@
       </c>
       <c r="N47" s="22"/>
     </row>
-    <row r="48" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A48" s="62" t="s">
         <v>135</v>
       </c>
@@ -20619,7 +20614,7 @@
       </c>
       <c r="N48" s="22"/>
     </row>
-    <row r="49" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A49" s="62" t="s">
         <v>139</v>
       </c>
@@ -20665,7 +20660,7 @@
       </c>
       <c r="N49" s="22"/>
     </row>
-    <row r="50" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A50" s="62"/>
       <c r="B50" s="11">
         <v>46</v>
@@ -20704,7 +20699,7 @@
       </c>
       <c r="N50" s="22"/>
     </row>
-    <row r="51" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A51" s="62"/>
       <c r="B51" s="11">
         <v>46</v>
@@ -20738,7 +20733,7 @@
       </c>
       <c r="N51" s="22"/>
     </row>
-    <row r="52" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A52" s="62" t="s">
         <v>146</v>
       </c>
@@ -20784,7 +20779,7 @@
       </c>
       <c r="N52" s="22"/>
     </row>
-    <row r="53" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A53" s="62"/>
       <c r="B53" s="11">
         <v>48</v>
@@ -20819,7 +20814,7 @@
       </c>
       <c r="N53" s="22"/>
     </row>
-    <row r="54" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A54" s="62" t="s">
         <v>152</v>
       </c>
@@ -20865,7 +20860,7 @@
       </c>
       <c r="N54" s="22"/>
     </row>
-    <row r="55" spans="1:14" ht="22.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="22.15" customHeight="1">
       <c r="A55" s="62" t="s">
         <v>156</v>
       </c>
@@ -20911,7 +20906,7 @@
       </c>
       <c r="N55" s="22"/>
     </row>
-    <row r="56" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" ht="25.5" customHeight="1">
       <c r="A56" s="62"/>
       <c r="B56" s="37">
         <v>61</v>
@@ -20946,7 +20941,7 @@
       </c>
       <c r="N56" s="22"/>
     </row>
-    <row r="57" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="27" customHeight="1">
       <c r="A57" s="62" t="s">
         <v>162</v>
       </c>
@@ -20992,7 +20987,7 @@
       </c>
       <c r="N57" s="22"/>
     </row>
-    <row r="58" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="87.75" customHeight="1">
       <c r="A58" s="62" t="s">
         <v>166</v>
       </c>
@@ -21038,7 +21033,7 @@
       </c>
       <c r="N58" s="22"/>
     </row>
-    <row r="59" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="28.5" customHeight="1">
       <c r="A59" s="62" t="s">
         <v>171</v>
       </c>
@@ -21084,7 +21079,7 @@
       </c>
       <c r="N59" s="22"/>
     </row>
-    <row r="60" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="48.75" customHeight="1">
       <c r="A60" s="62" t="s">
         <v>175</v>
       </c>
@@ -21130,7 +21125,7 @@
       </c>
       <c r="N60" s="22"/>
     </row>
-    <row r="61" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A61" s="62" t="s">
         <v>179</v>
       </c>
@@ -21176,7 +21171,7 @@
       </c>
       <c r="N61" s="22"/>
     </row>
-    <row r="62" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A62" s="62"/>
       <c r="B62" s="11">
         <v>68</v>
@@ -21211,7 +21206,7 @@
       </c>
       <c r="N62" s="22"/>
     </row>
-    <row r="63" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A63" s="62" t="s">
         <v>185</v>
       </c>
@@ -21257,7 +21252,7 @@
       </c>
       <c r="N63" s="22"/>
     </row>
-    <row r="64" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A64" s="62"/>
       <c r="B64" s="11">
         <v>70</v>
@@ -21292,7 +21287,7 @@
       </c>
       <c r="N64" s="22"/>
     </row>
-    <row r="65" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A65" s="62"/>
       <c r="B65" s="11">
         <v>70</v>
@@ -21327,7 +21322,7 @@
       </c>
       <c r="N65" s="22"/>
     </row>
-    <row r="66" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A66" s="62" t="s">
         <v>192</v>
       </c>
@@ -21372,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" ht="31.9" customHeight="1">
       <c r="A67" s="62"/>
       <c r="B67" s="11">
         <v>71</v>
@@ -21406,7 +21401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" ht="126" customHeight="1">
       <c r="A68" s="62" t="s">
         <v>196</v>
       </c>
@@ -21451,7 +21446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A69" s="62" t="s">
         <v>200</v>
       </c>
@@ -21496,7 +21491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A70" s="62" t="s">
         <v>204</v>
       </c>
@@ -21542,7 +21537,7 @@
       </c>
       <c r="N70" s="22"/>
     </row>
-    <row r="71" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A71" s="62" t="s">
         <v>208</v>
       </c>
@@ -21587,7 +21582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" ht="25.5" customHeight="1">
       <c r="A72" s="62" t="s">
         <v>212</v>
       </c>
@@ -21632,7 +21627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A73" s="62" t="s">
         <v>216</v>
       </c>
@@ -21677,7 +21672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" ht="25.5" customHeight="1">
       <c r="A74" s="62" t="s">
         <v>220</v>
       </c>
@@ -21722,7 +21717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A75" s="62" t="s">
         <v>224</v>
       </c>
@@ -21767,7 +21762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" ht="54.75" customHeight="1">
       <c r="A76" s="62" t="s">
         <v>228</v>
       </c>
@@ -21812,7 +21807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A77" s="62" t="s">
         <v>231</v>
       </c>
@@ -21857,7 +21852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A78" s="62"/>
       <c r="B78" s="11">
         <v>108</v>
@@ -21891,7 +21886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A79" s="62" t="s">
         <v>237</v>
       </c>
@@ -21936,7 +21931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" ht="18.600000000000001" customHeight="1">
       <c r="A80" s="62" t="s">
         <v>241</v>
       </c>
@@ -21981,7 +21976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13" ht="18" customHeight="1">
       <c r="A81" s="62" t="s">
         <v>245</v>
       </c>
@@ -22026,7 +22021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A82" s="62" t="s">
         <v>249</v>
       </c>
@@ -22071,7 +22066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" ht="15" customHeight="1">
       <c r="A83" s="62" t="s">
         <v>253</v>
       </c>
@@ -22116,7 +22111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A84" s="62"/>
       <c r="B84" s="11">
         <v>113</v>
@@ -22150,7 +22145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" ht="17.25" customHeight="1">
       <c r="A85" s="62" t="s">
         <v>259</v>
       </c>
@@ -22195,7 +22190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A86" s="62"/>
       <c r="B86" s="11">
         <v>114</v>
@@ -22229,7 +22224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A87" s="62"/>
       <c r="B87" s="11">
         <v>114</v>
@@ -22263,7 +22258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A88" s="62" t="s">
         <v>266</v>
       </c>
@@ -22308,7 +22303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A89" s="62" t="s">
         <v>270</v>
       </c>
@@ -22353,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A90" s="62"/>
       <c r="B90" s="11">
         <v>116</v>
@@ -22387,7 +22382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A91" s="62"/>
       <c r="B91" s="11">
         <v>116</v>
@@ -22423,7 +22418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A92" s="62"/>
       <c r="B92" s="11">
         <v>116</v>
@@ -22457,7 +22452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A93" s="62" t="s">
         <v>277</v>
       </c>
@@ -22502,7 +22497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A94" s="62"/>
       <c r="B94" s="11">
         <v>117</v>
@@ -22536,7 +22531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A95" s="62"/>
       <c r="B95" s="11">
         <v>117</v>
@@ -22570,7 +22565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A96" s="62" t="s">
         <v>284</v>
       </c>
@@ -22615,7 +22610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A97" s="62"/>
       <c r="B97" s="11">
         <v>118</v>
@@ -22649,7 +22644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A98" s="62" t="s">
         <v>290</v>
       </c>
@@ -22694,7 +22689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A99" s="62" t="s">
         <v>294</v>
       </c>
@@ -22739,7 +22734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A100" s="62" t="s">
         <v>298</v>
       </c>
@@ -22784,7 +22779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A101" s="62" t="s">
         <v>302</v>
       </c>
@@ -22829,7 +22824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A102" s="62" t="s">
         <v>306</v>
       </c>
@@ -22874,7 +22869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A103" s="62" t="s">
         <v>310</v>
       </c>
@@ -22919,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A104" s="62" t="s">
         <v>314</v>
       </c>
@@ -22964,7 +22959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13" ht="26.45" customHeight="1">
       <c r="A105" s="62" t="s">
         <v>318</v>
       </c>
@@ -23009,7 +23004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A106" s="62" t="s">
         <v>322</v>
       </c>
@@ -23054,7 +23049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A107" s="62" t="s">
         <v>326</v>
       </c>
@@ -23099,7 +23094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A108" s="62"/>
       <c r="B108" s="19">
         <v>154</v>
@@ -23133,7 +23128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A109" s="62" t="s">
         <v>329</v>
       </c>
@@ -23178,7 +23173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A110" s="62"/>
       <c r="B110" s="19">
         <v>155</v>
@@ -23212,7 +23207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A111" s="62" t="s">
         <v>333</v>
       </c>
@@ -23257,7 +23252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" ht="18" customHeight="1">
       <c r="A112" s="62" t="s">
         <v>337</v>
       </c>
@@ -23302,7 +23297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:13" ht="26.25" customHeight="1">
       <c r="A113" s="62" t="s">
         <v>341</v>
       </c>
@@ -23347,7 +23342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:13" ht="21.75" customHeight="1">
       <c r="A114" s="62" t="s">
         <v>345</v>
       </c>
@@ -23392,7 +23387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:13" ht="24.75" customHeight="1">
       <c r="A115" s="62" t="s">
         <v>349</v>
       </c>
@@ -23437,7 +23432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A116" s="62" t="s">
         <v>353</v>
       </c>
@@ -23482,7 +23477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A117" s="62" t="s">
         <v>356</v>
       </c>
@@ -23527,7 +23522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:13" ht="18.600000000000001" customHeight="1">
       <c r="A118" s="62"/>
       <c r="B118" s="11">
         <v>191</v>
@@ -23561,7 +23556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:13" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:13" s="13" customFormat="1" ht="50.25" customHeight="1">
       <c r="B119" s="17"/>
       <c r="C119" s="45"/>
       <c r="D119" s="65"/>
@@ -23573,7 +23568,7 @@
       <c r="J119" s="45"/>
       <c r="M119" s="64"/>
     </row>
-    <row r="120" spans="1:13" s="13" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:13" s="13" customFormat="1" ht="47.25" customHeight="1">
       <c r="B120" s="17"/>
       <c r="C120" s="45"/>
       <c r="D120" s="65"/>
@@ -23585,11 +23580,11 @@
       <c r="J120" s="45"/>
       <c r="M120" s="64"/>
     </row>
-    <row r="121" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="1:13" ht="14.25" customHeight="1"/>
+    <row r="122" spans="1:13" ht="27.75" customHeight="1"/>
+    <row r="123" spans="1:13" ht="11.25" customHeight="1"/>
+    <row r="124" spans="1:13" ht="22.5" customHeight="1"/>
+    <row r="126" spans="1:13" ht="21.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="M3:M33 M60:M69 M71:M86">
@@ -23622,162 +23617,157 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="24" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="25" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>363</v>
       </c>
       <c r="B3" s="125"/>
       <c r="C3" s="26"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="125"/>
       <c r="C4" s="26"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="26" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="126"/>
       <c r="C5" s="26"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="126"/>
       <c r="C6" s="26"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="26" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="126"/>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="26" t="s">
         <v>170</v>
       </c>
       <c r="B8" s="126"/>
       <c r="C8" s="26"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="26" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="126"/>
       <c r="C9" s="26"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B10" s="126"/>
       <c r="C10" s="26"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="126"/>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="26" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="126"/>
       <c r="C12" s="26"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B13" s="126"/>
       <c r="C13" s="26"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B14" s="126"/>
       <c r="C14" s="26"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15" s="126"/>
       <c r="C15" s="26"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B16" s="126"/>
       <c r="C16" s="26"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="26" t="s">
         <v>308</v>
       </c>
       <c r="B17" s="126"/>
       <c r="C17" s="26"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="126"/>
       <c r="C18" s="26"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="126"/>
       <c r="C19" s="26"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B20" s="126"/>
       <c r="C20" s="26"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="126"/>
       <c r="C21" s="26"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="26" t="s">
         <v>80</v>
       </c>
@@ -23800,71 +23790,71 @@
       <selection activeCell="C43" sqref="C42:C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="122" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="59" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="122" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="122" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="122" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="122" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="122" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="123" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="123"/>
+    <col min="1" max="1" width="26.28515625" style="122" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="122" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="122" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="122" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="122" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="122" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="123" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="124" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="122" t="s">
         <v>371</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="C1" s="122" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="D1" s="122" t="s">
         <v>373</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="E1" s="122" t="s">
         <v>374</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="F1" s="122" t="s">
         <v>375</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="G1" s="122" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="122" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="63">
+        <f>'1'!C1</f>
+        <v>0</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="63" t="str">
-        <f>'1'!C1</f>
-        <v>M BS</v>
-      </c>
-      <c r="B2" s="57" t="s">
+      <c r="C2" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>379</v>
       </c>
       <c r="D2" s="58">
         <f>SVHC!C3</f>
         <v>0</v>
       </c>
       <c r="E2" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F2" s="58">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="str">
+    <row r="3" spans="1:7">
+      <c r="A3" s="56">
         <f>A2</f>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" s="60" t="s">
         <v>16</v>
@@ -23874,19 +23864,19 @@
         <v>0</v>
       </c>
       <c r="E3" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F3" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="58" t="str">
+    <row r="4" spans="1:7">
+      <c r="A4" s="58">
         <f t="shared" ref="A4:A35" si="0">A2</f>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C4" s="60" t="s">
         <v>21</v>
@@ -23896,19 +23886,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4" s="58">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="str">
+    <row r="5" spans="1:7">
+      <c r="A5" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="60" t="s">
         <v>26</v>
@@ -23918,19 +23908,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F5" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="58" t="str">
+    <row r="6" spans="1:7">
+      <c r="A6" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="60" t="s">
         <v>32</v>
@@ -23940,19 +23930,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F6" s="58">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="58" t="str">
+    <row r="7" spans="1:7">
+      <c r="A7" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>38</v>
@@ -23962,19 +23952,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F7" s="58">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="58" t="str">
+    <row r="8" spans="1:7">
+      <c r="A8" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C8" s="60" t="s">
         <v>42</v>
@@ -23984,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F8" s="58">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="58" t="str">
+    <row r="9" spans="1:7">
+      <c r="A9" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="60" t="s">
         <v>46</v>
@@ -24006,19 +23996,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F9" s="58">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="str">
+    <row r="10" spans="1:7">
+      <c r="A10" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" s="60" t="s">
         <v>52</v>
@@ -24028,19 +24018,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F10" s="58">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="str">
+    <row r="11" spans="1:7">
+      <c r="A11" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C11" s="60" t="s">
         <v>57</v>
@@ -24050,19 +24040,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F11" s="58">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="str">
+    <row r="12" spans="1:7">
+      <c r="A12" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C12" s="60" t="s">
         <v>64</v>
@@ -24072,19 +24062,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F12" s="58">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="str">
+    <row r="13" spans="1:7">
+      <c r="A13" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C13" s="60" t="s">
         <v>83</v>
@@ -24094,19 +24084,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F13" s="58">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="58" t="str">
+    <row r="14" spans="1:7">
+      <c r="A14" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C14" s="60" t="s">
         <v>87</v>
@@ -24116,19 +24106,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F14" s="58">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="58" t="str">
+    <row r="15" spans="1:7">
+      <c r="A15" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>92</v>
@@ -24138,19 +24128,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F15" s="58">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="58" t="str">
+    <row r="16" spans="1:7">
+      <c r="A16" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>98</v>
@@ -24160,19 +24150,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F16" s="58">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="58" t="str">
+    <row r="17" spans="1:6">
+      <c r="A17" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>102</v>
@@ -24182,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F17" s="58">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="58" t="str">
+    <row r="18" spans="1:6">
+      <c r="A18" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>106</v>
@@ -24204,19 +24194,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F18" s="58">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="58" t="str">
+    <row r="19" spans="1:6">
+      <c r="A19" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>111</v>
@@ -24226,19 +24216,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F19" s="58">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="58" t="str">
+    <row r="20" spans="1:6">
+      <c r="A20" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>115</v>
@@ -24248,19 +24238,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F20" s="58">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="58" t="str">
+    <row r="21" spans="1:6">
+      <c r="A21" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>119</v>
@@ -24270,19 +24260,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F21" s="58">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="58" t="str">
+    <row r="22" spans="1:6">
+      <c r="A22" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>123</v>
@@ -24292,19 +24282,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F22" s="58">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="58" t="str">
+    <row r="23" spans="1:6">
+      <c r="A23" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C23" s="60" t="s">
         <v>127</v>
@@ -24314,19 +24304,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F23" s="58">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="58" t="str">
+    <row r="24" spans="1:6">
+      <c r="A24" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>131</v>
@@ -24336,19 +24326,19 @@
         <v>0</v>
       </c>
       <c r="E24" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F24" s="58">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="58" t="str">
+    <row r="25" spans="1:6">
+      <c r="A25" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C25" s="60" t="s">
         <v>135</v>
@@ -24358,19 +24348,19 @@
         <v>0</v>
       </c>
       <c r="E25" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F25" s="58">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="58" t="str">
+    <row r="26" spans="1:6">
+      <c r="A26" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C26" s="60" t="s">
         <v>139</v>
@@ -24380,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E26" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F26" s="58">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="str">
+    <row r="27" spans="1:6">
+      <c r="A27" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C27" s="60" t="s">
         <v>146</v>
@@ -24402,19 +24392,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F27" s="58">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="58" t="str">
+    <row r="28" spans="1:6">
+      <c r="A28" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C28" s="60" t="s">
         <v>152</v>
@@ -24424,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F28" s="58">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="58" t="str">
+    <row r="29" spans="1:6">
+      <c r="A29" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C29" s="60" t="s">
         <v>156</v>
@@ -24446,19 +24436,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F29" s="58">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="58" t="str">
+    <row r="30" spans="1:6">
+      <c r="A30" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C30" s="60" t="s">
         <v>162</v>
@@ -24468,19 +24458,19 @@
         <v>0</v>
       </c>
       <c r="E30" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F30" s="58">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="58" t="str">
+    <row r="31" spans="1:6">
+      <c r="A31" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>166</v>
@@ -24490,19 +24480,19 @@
         <v>0</v>
       </c>
       <c r="E31" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F31" s="58">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="58" t="str">
+    <row r="32" spans="1:6">
+      <c r="A32" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C32" s="60" t="s">
         <v>171</v>
@@ -24512,19 +24502,19 @@
         <v>0</v>
       </c>
       <c r="E32" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F32" s="58">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="58" t="str">
+    <row r="33" spans="1:6">
+      <c r="A33" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C33" s="60" t="s">
         <v>175</v>
@@ -24534,19 +24524,19 @@
         <v>0</v>
       </c>
       <c r="E33" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F33" s="58">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="58" t="str">
+    <row r="34" spans="1:6">
+      <c r="A34" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C34" s="60" t="s">
         <v>179</v>
@@ -24556,19 +24546,19 @@
         <v>0</v>
       </c>
       <c r="E34" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F34" s="58">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="58" t="str">
+    <row r="35" spans="1:6">
+      <c r="A35" s="58">
         <f t="shared" si="0"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C35" s="60" t="s">
         <v>185</v>
@@ -24578,19 +24568,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F35" s="58">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="58" t="str">
+    <row r="36" spans="1:6">
+      <c r="A36" s="58">
         <f t="shared" ref="A36:A67" si="1">A34</f>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C36" s="60" t="s">
         <v>192</v>
@@ -24600,19 +24590,19 @@
         <v>0</v>
       </c>
       <c r="E36" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F36" s="58">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="58" t="str">
+    <row r="37" spans="1:6">
+      <c r="A37" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C37" s="60" t="s">
         <v>196</v>
@@ -24622,19 +24612,19 @@
         <v>0</v>
       </c>
       <c r="E37" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F37" s="58">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="58" t="str">
+    <row r="38" spans="1:6">
+      <c r="A38" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>200</v>
@@ -24644,19 +24634,19 @@
         <v>0</v>
       </c>
       <c r="E38" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F38" s="58">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="58" t="str">
+    <row r="39" spans="1:6">
+      <c r="A39" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C39" s="60" t="s">
         <v>204</v>
@@ -24666,19 +24656,19 @@
         <v>0</v>
       </c>
       <c r="E39" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F39" s="58">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="58" t="str">
+    <row r="40" spans="1:6">
+      <c r="A40" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C40" s="60" t="s">
         <v>208</v>
@@ -24688,19 +24678,19 @@
         <v>0</v>
       </c>
       <c r="E40" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F40" s="58">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="58" t="str">
+    <row r="41" spans="1:6">
+      <c r="A41" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C41" s="60" t="s">
         <v>212</v>
@@ -24710,19 +24700,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F41" s="58">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="58" t="str">
+    <row r="42" spans="1:6">
+      <c r="A42" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C42" s="60" t="s">
         <v>216</v>
@@ -24732,19 +24722,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F42" s="58">
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="58" t="str">
+    <row r="43" spans="1:6">
+      <c r="A43" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="60" t="s">
         <v>220</v>
@@ -24754,19 +24744,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F43" s="58">
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="58" t="str">
+    <row r="44" spans="1:6">
+      <c r="A44" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B44" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C44" s="60" t="s">
         <v>224</v>
@@ -24776,19 +24766,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F44" s="58">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="58" t="str">
+    <row r="45" spans="1:6">
+      <c r="A45" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B45" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C45" s="60" t="s">
         <v>228</v>
@@ -24798,41 +24788,41 @@
         <v>0</v>
       </c>
       <c r="E45" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F45" s="58">
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="58" t="str">
+    <row r="46" spans="1:6">
+      <c r="A46" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C46" s="60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D46" s="58">
         <f>SVHC!C77</f>
         <v>0</v>
       </c>
       <c r="E46" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F46" s="58">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A47" s="58" t="str">
+    <row r="47" spans="1:6">
+      <c r="A47" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C47" s="60" t="s">
         <v>237</v>
@@ -24842,19 +24832,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F47" s="58">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A48" s="58" t="str">
+    <row r="48" spans="1:6">
+      <c r="A48" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C48" s="60" t="s">
         <v>241</v>
@@ -24864,19 +24854,19 @@
         <v>0</v>
       </c>
       <c r="E48" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F48" s="58">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A49" s="58" t="str">
+    <row r="49" spans="1:6">
+      <c r="A49" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="60" t="s">
         <v>245</v>
@@ -24886,19 +24876,19 @@
         <v>0</v>
       </c>
       <c r="E49" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F49" s="58">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A50" s="58" t="str">
+    <row r="50" spans="1:6">
+      <c r="A50" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B50" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C50" s="60" t="s">
         <v>249</v>
@@ -24908,19 +24898,19 @@
         <v>0</v>
       </c>
       <c r="E50" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F50" s="58">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A51" s="58" t="str">
+    <row r="51" spans="1:6">
+      <c r="A51" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C51" s="60" t="s">
         <v>253</v>
@@ -24930,19 +24920,19 @@
         <v>0</v>
       </c>
       <c r="E51" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F51" s="58">
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="58" t="str">
+    <row r="52" spans="1:6">
+      <c r="A52" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C52" s="60" t="s">
         <v>259</v>
@@ -24952,19 +24942,19 @@
         <v>0</v>
       </c>
       <c r="E52" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F52" s="58">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="58" t="str">
+    <row r="53" spans="1:6">
+      <c r="A53" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C53" s="60" t="s">
         <v>266</v>
@@ -24974,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="E53" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F53" s="58">
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="58" t="str">
+    <row r="54" spans="1:6">
+      <c r="A54" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C54" s="60" t="s">
         <v>270</v>
@@ -24996,19 +24986,19 @@
         <v>0</v>
       </c>
       <c r="E54" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F54" s="58">
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="58" t="str">
+    <row r="55" spans="1:6">
+      <c r="A55" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C55" s="60" t="s">
         <v>277</v>
@@ -25018,19 +25008,19 @@
         <v>0</v>
       </c>
       <c r="E55" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F55" s="58">
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="58" t="str">
+    <row r="56" spans="1:6">
+      <c r="A56" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C56" s="60" t="s">
         <v>284</v>
@@ -25040,19 +25030,19 @@
         <v>0</v>
       </c>
       <c r="E56" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F56" s="58">
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="58" t="str">
+    <row r="57" spans="1:6">
+      <c r="A57" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C57" s="60" t="s">
         <v>290</v>
@@ -25062,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="E57" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F57" s="58">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="58" t="str">
+    <row r="58" spans="1:6">
+      <c r="A58" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C58" s="60" t="s">
         <v>294</v>
@@ -25084,19 +25074,19 @@
         <v>0</v>
       </c>
       <c r="E58" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F58" s="58">
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="58" t="str">
+    <row r="59" spans="1:6">
+      <c r="A59" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" s="60" t="s">
         <v>298</v>
@@ -25106,19 +25096,19 @@
         <v>0</v>
       </c>
       <c r="E59" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F59" s="58">
         <v>121</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="58" t="str">
+    <row r="60" spans="1:6">
+      <c r="A60" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C60" s="60" t="s">
         <v>302</v>
@@ -25128,19 +25118,19 @@
         <v>0</v>
       </c>
       <c r="E60" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F60" s="58">
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="58" t="str">
+    <row r="61" spans="1:6">
+      <c r="A61" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C61" s="60" t="s">
         <v>306</v>
@@ -25150,19 +25140,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F61" s="58">
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="58" t="str">
+    <row r="62" spans="1:6">
+      <c r="A62" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C62" s="60" t="s">
         <v>310</v>
@@ -25172,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E62" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F62" s="58">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="58" t="str">
+    <row r="63" spans="1:6">
+      <c r="A63" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C63" s="60" t="s">
         <v>314</v>
@@ -25194,19 +25184,19 @@
         <v>0</v>
       </c>
       <c r="E63" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F63" s="58">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="58" t="str">
+    <row r="64" spans="1:6">
+      <c r="A64" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C64" s="60" t="s">
         <v>318</v>
@@ -25216,19 +25206,19 @@
         <v>0</v>
       </c>
       <c r="E64" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F64" s="58">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="58" t="str">
+    <row r="65" spans="1:6">
+      <c r="A65" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C65" s="60" t="s">
         <v>322</v>
@@ -25238,19 +25228,19 @@
         <v>0</v>
       </c>
       <c r="E65" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F65" s="58">
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="58" t="str">
+    <row r="66" spans="1:6">
+      <c r="A66" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C66" s="60" t="s">
         <v>326</v>
@@ -25260,19 +25250,19 @@
         <v>0</v>
       </c>
       <c r="E66" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F66" s="58">
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="58" t="str">
+    <row r="67" spans="1:6">
+      <c r="A67" s="58">
         <f t="shared" si="1"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C67" s="60" t="s">
         <v>329</v>
@@ -25282,19 +25272,19 @@
         <v>0</v>
       </c>
       <c r="E67" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F67" s="58">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="58" t="str">
+    <row r="68" spans="1:6">
+      <c r="A68" s="58">
         <f t="shared" ref="A68:A74" si="2">A66</f>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C68" s="60" t="s">
         <v>333</v>
@@ -25304,19 +25294,19 @@
         <v>0</v>
       </c>
       <c r="E68" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F68" s="58">
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A69" s="58" t="str">
+    <row r="69" spans="1:6">
+      <c r="A69" s="58">
         <f t="shared" si="2"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C69" s="60" t="s">
         <v>337</v>
@@ -25326,19 +25316,19 @@
         <v>0</v>
       </c>
       <c r="E69" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F69" s="58">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A70" s="58" t="str">
+    <row r="70" spans="1:6">
+      <c r="A70" s="58">
         <f t="shared" si="2"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C70" s="60" t="s">
         <v>341</v>
@@ -25348,19 +25338,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F70" s="58">
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A71" s="58" t="str">
+    <row r="71" spans="1:6">
+      <c r="A71" s="58">
         <f t="shared" si="2"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C71" s="60" t="s">
         <v>345</v>
@@ -25370,19 +25360,19 @@
         <v>0</v>
       </c>
       <c r="E71" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F71" s="58">
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A72" s="58" t="str">
+    <row r="72" spans="1:6">
+      <c r="A72" s="58">
         <f t="shared" si="2"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C72" s="60" t="s">
         <v>349</v>
@@ -25392,19 +25382,19 @@
         <v>0</v>
       </c>
       <c r="E72" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F72" s="58">
         <v>182</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A73" s="58" t="str">
+    <row r="73" spans="1:6">
+      <c r="A73" s="58">
         <f t="shared" si="2"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C73" s="60" t="s">
         <v>353</v>
@@ -25414,19 +25404,19 @@
         <v>0</v>
       </c>
       <c r="E73" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F73" s="58">
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A74" s="58" t="str">
+    <row r="74" spans="1:6">
+      <c r="A74" s="58">
         <f t="shared" si="2"/>
-        <v>M BS</v>
+        <v>0</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C74" s="60" t="s">
         <v>356</v>
@@ -25436,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F74" s="58">
         <v>191</v>
